--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H2">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I2">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J2">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>519.0181386623933</v>
+        <v>148.5503988631301</v>
       </c>
       <c r="R2">
-        <v>4671.16324796154</v>
+        <v>1336.953589768171</v>
       </c>
       <c r="S2">
-        <v>0.1189328916685138</v>
+        <v>0.06526242539635969</v>
       </c>
       <c r="T2">
-        <v>0.1336570335089454</v>
+        <v>0.07417130462483654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H3">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I3">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J3">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>62.11774736379</v>
+        <v>41.914731447522</v>
       </c>
       <c r="R3">
-        <v>559.0597262741101</v>
+        <v>377.232583027698</v>
       </c>
       <c r="S3">
-        <v>0.01423426806806713</v>
+        <v>0.01841433651499465</v>
       </c>
       <c r="T3">
-        <v>0.01599650035796304</v>
+        <v>0.02092805093930976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H4">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I4">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J4">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>54.7607538157175</v>
+        <v>27.29537665676</v>
       </c>
       <c r="R4">
-        <v>328.564522894305</v>
+        <v>163.77225994056</v>
       </c>
       <c r="S4">
-        <v>0.01254841462388141</v>
+        <v>0.01199163715722252</v>
       </c>
       <c r="T4">
-        <v>0.009401289810519667</v>
+        <v>0.009085732125716889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>125.4169656666667</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H5">
-        <v>376.250897</v>
+        <v>191.197651</v>
       </c>
       <c r="I5">
-        <v>0.1934870726059072</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J5">
-        <v>0.2111994709712006</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>689.1734169110315</v>
+        <v>3.449864193726778</v>
       </c>
       <c r="R5">
-        <v>6202.560752199283</v>
+        <v>31.048777743541</v>
       </c>
       <c r="S5">
-        <v>0.1579239360411166</v>
+        <v>0.001515623696023258</v>
       </c>
       <c r="T5">
-        <v>0.1774752510864923</v>
+        <v>0.001722519293017759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>376.250897</v>
       </c>
       <c r="I6">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J6">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>82.482474142134</v>
+        <v>292.3269220601485</v>
       </c>
       <c r="R6">
-        <v>742.342267279206</v>
+        <v>2630.942298541337</v>
       </c>
       <c r="S6">
-        <v>0.01890084070468</v>
+        <v>0.1284275511092755</v>
       </c>
       <c r="T6">
-        <v>0.0212408044904322</v>
+        <v>0.1459590102221235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>376.250897</v>
       </c>
       <c r="I7">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J7">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>72.71355856090884</v>
+        <v>82.482474142134</v>
       </c>
       <c r="R7">
-        <v>436.281351365453</v>
+        <v>742.342267279206</v>
       </c>
       <c r="S7">
-        <v>0.0166622958601106</v>
+        <v>0.03623690246815109</v>
       </c>
       <c r="T7">
-        <v>0.0124834153942762</v>
+        <v>0.04118354957392751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>129.124439</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H8">
-        <v>387.373317</v>
+        <v>376.250897</v>
       </c>
       <c r="I8">
-        <v>0.1992067785341921</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J8">
-        <v>0.2174427762726615</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>709.5461954395028</v>
+        <v>53.71357805572</v>
       </c>
       <c r="R8">
-        <v>6385.915758955524</v>
+        <v>322.28146833432</v>
       </c>
       <c r="S8">
-        <v>0.1625923537344901</v>
+        <v>0.02359790621540379</v>
       </c>
       <c r="T8">
-        <v>0.1827216286976251</v>
+        <v>0.01787948149113347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>129.124439</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H9">
-        <v>387.373317</v>
+        <v>376.250897</v>
       </c>
       <c r="I9">
-        <v>0.1992067785341921</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J9">
-        <v>0.2174427762726615</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>84.92075329937401</v>
+        <v>6.78886215719189</v>
       </c>
       <c r="R9">
-        <v>764.2867796943661</v>
+        <v>61.099759414727</v>
       </c>
       <c r="S9">
-        <v>0.01945957183421814</v>
+        <v>0.00298254069629342</v>
       </c>
       <c r="T9">
-        <v>0.02186870770757848</v>
+        <v>0.00338968300974439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H10">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I10">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J10">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5797745</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N10">
-        <v>1.159549</v>
+        <v>6.992521</v>
       </c>
       <c r="O10">
-        <v>0.08611580937010824</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P10">
-        <v>0.0591072285213179</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q10">
-        <v>74.86305705900551</v>
+        <v>429.2336461085042</v>
       </c>
       <c r="R10">
-        <v>449.178342354033</v>
+        <v>3863.102814976538</v>
       </c>
       <c r="S10">
-        <v>0.01715485296548386</v>
+        <v>0.1885745781980289</v>
       </c>
       <c r="T10">
-        <v>0.01285243986745801</v>
+        <v>0.2143166209205311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>163.083542</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H11">
-        <v>326.167084</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I11">
-        <v>0.2515971979074048</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J11">
-        <v>0.183086116573482</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.495057333333333</v>
+        <v>0.657666</v>
       </c>
       <c r="N11">
-        <v>16.485172</v>
+        <v>1.972998</v>
       </c>
       <c r="O11">
-        <v>0.8161989011161211</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P11">
-        <v>0.8403205285996808</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q11">
-        <v>896.1534134130746</v>
+        <v>121.111845828534</v>
       </c>
       <c r="R11">
-        <v>5376.920480478449</v>
+        <v>1090.006612456806</v>
       </c>
       <c r="S11">
-        <v>0.205353356455919</v>
+        <v>0.05320788677439148</v>
       </c>
       <c r="T11">
-        <v>0.1538510222582912</v>
+        <v>0.06047121838360814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>184.1540323333334</v>
+      </c>
+      <c r="H12">
+        <v>552.4620970000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2808114468489298</v>
+      </c>
+      <c r="J12">
+        <v>0.3060180830465028</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>163.083542</v>
-      </c>
-      <c r="H12">
-        <v>326.167084</v>
-      </c>
-      <c r="I12">
-        <v>0.2515971979074048</v>
-      </c>
-      <c r="J12">
-        <v>0.183086116573482</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.657666</v>
+        <v>0.42828</v>
       </c>
       <c r="N12">
-        <v>1.972998</v>
+        <v>0.85656</v>
       </c>
       <c r="O12">
-        <v>0.09768528951377062</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P12">
-        <v>0.1005722428790014</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q12">
-        <v>107.254500732972</v>
+        <v>78.86948896772002</v>
       </c>
       <c r="R12">
-        <v>643.5270043978321</v>
+        <v>473.2169338063201</v>
       </c>
       <c r="S12">
-        <v>0.02457734511843828</v>
+        <v>0.03464961507472848</v>
       </c>
       <c r="T12">
-        <v>0.01841338138380139</v>
+        <v>0.02625305591727077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>163.083542</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H13">
-        <v>326.167084</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I13">
-        <v>0.2515971979074048</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J13">
-        <v>0.183086116573482</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5797745</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N13">
-        <v>1.159549</v>
+        <v>0.162391</v>
       </c>
       <c r="O13">
-        <v>0.08611580937010824</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P13">
-        <v>0.0591072285213179</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q13">
-        <v>94.55167902127901</v>
+        <v>9.968319154880779</v>
       </c>
       <c r="R13">
-        <v>378.2067160851161</v>
+        <v>89.71487239392702</v>
       </c>
       <c r="S13">
-        <v>0.02166649633304746</v>
+        <v>0.004379366801780948</v>
       </c>
       <c r="T13">
-        <v>0.01082171293138945</v>
+        <v>0.004977187825092833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.1162363333333</v>
+        <v>162.052406</v>
       </c>
       <c r="H14">
-        <v>408.348709</v>
+        <v>324.104812</v>
       </c>
       <c r="I14">
-        <v>0.2099933765920337</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J14">
-        <v>0.2292168125052277</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N14">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O14">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P14">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q14">
-        <v>747.9665226492162</v>
+        <v>377.7182840185087</v>
       </c>
       <c r="R14">
-        <v>6731.698703842947</v>
+        <v>2266.309704111052</v>
       </c>
       <c r="S14">
-        <v>0.1713963632160817</v>
+        <v>0.165942410927563</v>
       </c>
       <c r="T14">
-        <v>0.1926155930483269</v>
+        <v>0.1257299795028725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.1162363333333</v>
+        <v>162.052406</v>
       </c>
       <c r="H15">
-        <v>408.348709</v>
+        <v>324.104812</v>
       </c>
       <c r="I15">
-        <v>0.2099933765920337</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J15">
-        <v>0.2292168125052277</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>1.972998</v>
       </c>
       <c r="O15">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P15">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q15">
-        <v>89.51902068439799</v>
+        <v>106.576357644396</v>
       </c>
       <c r="R15">
-        <v>805.671186159582</v>
+        <v>639.4581458663761</v>
       </c>
       <c r="S15">
-        <v>0.02051326378836707</v>
+        <v>0.04682203240794844</v>
       </c>
       <c r="T15">
-        <v>0.02305284893922629</v>
+        <v>0.03547576018709254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.1162363333333</v>
+        <v>162.052406</v>
       </c>
       <c r="H16">
-        <v>408.348709</v>
+        <v>324.104812</v>
       </c>
       <c r="I16">
-        <v>0.2099933765920337</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J16">
-        <v>0.2292168125052277</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N16">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O16">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P16">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q16">
-        <v>78.91672286204016</v>
+        <v>69.40380444168001</v>
       </c>
       <c r="R16">
-        <v>473.500337172241</v>
+        <v>277.61521776672</v>
       </c>
       <c r="S16">
-        <v>0.01808374958758492</v>
+        <v>0.0304910699955238</v>
       </c>
       <c r="T16">
-        <v>0.01354837051767458</v>
+        <v>0.01540149414538484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>162.052406</v>
+      </c>
+      <c r="H17">
+        <v>324.104812</v>
+      </c>
+      <c r="I17">
+        <v>0.2471092813859239</v>
+      </c>
+      <c r="J17">
+        <v>0.1795271274047008</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P17">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q17">
+        <v>8.771950754248667</v>
+      </c>
+      <c r="R17">
+        <v>52.63170452549201</v>
+      </c>
+      <c r="S17">
+        <v>0.003853768054888629</v>
+      </c>
+      <c r="T17">
+        <v>0.002919893569350879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>120.4365156666667</v>
+      </c>
+      <c r="H18">
+        <v>361.309547</v>
+      </c>
+      <c r="I18">
+        <v>0.1836503485114226</v>
+      </c>
+      <c r="J18">
+        <v>0.2001354582689865</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.992521</v>
+      </c>
+      <c r="O18">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P18">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q18">
+        <v>280.7182883219986</v>
+      </c>
+      <c r="R18">
+        <v>2526.464594897987</v>
+      </c>
+      <c r="S18">
+        <v>0.1233275473456523</v>
+      </c>
+      <c r="T18">
+        <v>0.1401628123265944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>120.4365156666667</v>
+      </c>
+      <c r="H19">
+        <v>361.309547</v>
+      </c>
+      <c r="I19">
+        <v>0.1836503485114226</v>
+      </c>
+      <c r="J19">
+        <v>0.2001354582689865</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.657666</v>
+      </c>
+      <c r="N19">
+        <v>1.972998</v>
+      </c>
+      <c r="O19">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P19">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q19">
+        <v>79.20700151243399</v>
+      </c>
+      <c r="R19">
+        <v>712.863013611906</v>
+      </c>
+      <c r="S19">
+        <v>0.03479789395811288</v>
+      </c>
+      <c r="T19">
+        <v>0.03954810409503898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>120.4365156666667</v>
+      </c>
+      <c r="H20">
+        <v>361.309547</v>
+      </c>
+      <c r="I20">
+        <v>0.1836503485114226</v>
+      </c>
+      <c r="J20">
+        <v>0.2001354582689865</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.42828</v>
+      </c>
+      <c r="N20">
+        <v>0.85656</v>
+      </c>
+      <c r="O20">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P20">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q20">
+        <v>51.58055092972</v>
+      </c>
+      <c r="R20">
+        <v>309.48330557832</v>
+      </c>
+      <c r="S20">
+        <v>0.02266080658629241</v>
+      </c>
+      <c r="T20">
+        <v>0.01716946699573269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>120.4365156666667</v>
+      </c>
+      <c r="H21">
+        <v>361.309547</v>
+      </c>
+      <c r="I21">
+        <v>0.1836503485114226</v>
+      </c>
+      <c r="J21">
+        <v>0.2001354582689865</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.162391</v>
+      </c>
+      <c r="O21">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P21">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q21">
+        <v>6.519268738541889</v>
+      </c>
+      <c r="R21">
+        <v>58.673418646877</v>
+      </c>
+      <c r="S21">
+        <v>0.002864100621365003</v>
+      </c>
+      <c r="T21">
+        <v>0.003255074851620466</v>
       </c>
     </row>
   </sheetData>
